--- a/data/imputed/verification/compare-2006.xlsx
+++ b/data/imputed/verification/compare-2006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/imputed/verification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359E1D68-9028-7E4A-B5C4-868F7338AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CBB36-249B-9E46-AC42-ABC4EF437E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1000" windowWidth="26860" windowHeight="16440" xr2:uid="{E0C4C404-FDE4-E34F-9393-A2A6E2220B18}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="compare_2006" localSheetId="0">Sheet1!$A$1:$N$37</definedName>
+    <definedName name="compare_2006" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C81694A3-4E83-BE46-8AA4-F15BD6BE0B81}" name="compare-2006" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/ushouse/temp/compare-2006.txt" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/ushouse/data/imputed/verification/compare-2006.txt" comma="1">
       <textFields count="14">
         <textField type="text"/>
         <textField type="text"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>FILE</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>LA</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
   </si>
   <si>
     <t>Massachusetts</t>
@@ -269,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,7 +272,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,31 +590,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1BB3ED-F11E-DE40-9E48-42317DD23C19}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -669,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -803,7 +794,6 @@
       <c r="N4" s="7">
         <v>0.5</v>
       </c>
-      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1202,1058 +1192,970 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="6">
-        <v>618911</v>
+        <v>733742</v>
       </c>
       <c r="F14" s="6">
-        <v>940611</v>
+        <v>1758074</v>
       </c>
       <c r="G14" s="6">
-        <v>16543</v>
+        <v>56724</v>
       </c>
       <c r="H14" s="6">
-        <v>1576065</v>
+        <v>2548540</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6">
+        <v>679843</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1632307</v>
+      </c>
+      <c r="G15" s="6">
+        <v>56724</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2368874</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1779301</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1975582</v>
+      </c>
+      <c r="G16" s="6">
+        <v>73139</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3828022</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1769107</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1951795</v>
+      </c>
+      <c r="G17" s="6">
+        <v>73139</v>
+      </c>
+      <c r="H17" s="6">
+        <v>3794041</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6">
+        <v>304308</v>
+      </c>
+      <c r="F18" s="6">
+        <v>314082</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>618390</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="J14">
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6">
+        <v>304308</v>
+      </c>
+      <c r="F19" s="6">
+        <v>421810</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-125421</v>
+      </c>
+      <c r="H19" s="6">
+        <v>726118</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1015217</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1238838</v>
+      </c>
+      <c r="G20" s="6">
+        <v>25882</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2279937</v>
+      </c>
+      <c r="I20">
         <v>6</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.60309999999999997</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.53849999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6">
-        <v>686981</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1099441</v>
-      </c>
-      <c r="G15" s="6">
-        <v>16543</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1802965</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1007218</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1220174</v>
+      </c>
+      <c r="G21" s="6">
+        <v>25882</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2253274</v>
+      </c>
+      <c r="I21">
         <v>6</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.53849999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6">
-        <v>733742</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1758074</v>
-      </c>
-      <c r="G16" s="6">
-        <v>56724</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2548540</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6">
-        <v>679843</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1632307</v>
-      </c>
-      <c r="G17" s="6">
-        <v>56724</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2368874</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1779301</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1975582</v>
-      </c>
-      <c r="G18" s="6">
-        <v>73139</v>
-      </c>
-      <c r="H18" s="6">
-        <v>3828022</v>
-      </c>
-      <c r="I18">
-        <v>9</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>15</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1769107</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1951795</v>
-      </c>
-      <c r="G19" s="6">
-        <v>73139</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3794041</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.52449999999999997</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="6">
-        <v>304308</v>
-      </c>
-      <c r="F20" s="6">
-        <v>314082</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>618390</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6">
-        <v>304308</v>
-      </c>
-      <c r="F21" s="6">
-        <v>421810</v>
-      </c>
-      <c r="G21" s="6">
-        <v>-125421</v>
-      </c>
-      <c r="H21" s="6">
-        <v>726118</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.58089999999999997</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="6">
-        <v>1015217</v>
+        <v>1452278</v>
       </c>
       <c r="F22" s="6">
-        <v>1238838</v>
+        <v>2704857</v>
       </c>
       <c r="G22" s="6">
-        <v>25882</v>
+        <v>731727</v>
       </c>
       <c r="H22" s="6">
-        <v>2279937</v>
+        <v>4888862</v>
       </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7">
-        <v>0.54959999999999998</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="N22" s="7">
-        <v>0.53849999999999998</v>
+        <v>0.79310000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="6">
-        <v>1007218</v>
+        <v>1429970</v>
       </c>
       <c r="F23" s="6">
-        <v>1220174</v>
+        <v>2621823</v>
       </c>
       <c r="G23" s="6">
-        <v>25882</v>
+        <v>731727</v>
       </c>
       <c r="H23" s="6">
-        <v>2253274</v>
+        <v>4783520</v>
       </c>
       <c r="I23">
         <v>6</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
-        <v>0.54779999999999995</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="N23" s="7">
-        <v>0.53849999999999998</v>
+        <v>0.79310000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="6">
-        <v>1452278</v>
+        <v>960351</v>
       </c>
       <c r="F24" s="6">
-        <v>2704857</v>
+        <v>1052806</v>
       </c>
       <c r="G24" s="6">
-        <v>731727</v>
+        <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>4888862</v>
+        <v>2013157</v>
       </c>
       <c r="I24">
         <v>6</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>0.65069999999999995</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="N24" s="7">
-        <v>0.79310000000000003</v>
+        <v>0.53849999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="6">
-        <v>1429970</v>
+        <v>956777</v>
       </c>
       <c r="F25" s="6">
-        <v>2621823</v>
+        <v>1044467</v>
       </c>
       <c r="G25" s="6">
-        <v>731727</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>4783520</v>
+        <v>2001244</v>
       </c>
       <c r="I25">
         <v>6</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M25" s="7">
-        <v>0.64710000000000001</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="N25" s="7">
-        <v>0.79310000000000003</v>
+        <v>0.53849999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="6">
-        <v>960351</v>
+        <v>1866418</v>
       </c>
       <c r="F26" s="6">
-        <v>1052806</v>
+        <v>2243292</v>
       </c>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>33796</v>
       </c>
       <c r="H26" s="6">
-        <v>2013157</v>
+        <v>4143506</v>
       </c>
       <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1860332</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2229091</v>
+      </c>
+      <c r="G27" s="6">
+        <v>33796</v>
+      </c>
+      <c r="H27" s="6">
+        <v>4123219</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6">
+        <v>622163</v>
+      </c>
+      <c r="F28" s="6">
+        <v>616434</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-129843</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1108754</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>6</v>
       </c>
-      <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0.53849999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="M28" s="7">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6">
-        <v>956777</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1044467</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2001244</v>
-      </c>
-      <c r="I27">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6">
+        <v>622163</v>
+      </c>
+      <c r="F29" s="6">
+        <v>844082</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-357491</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1336402</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>6</v>
       </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0.52190000000000003</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0.53849999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="M29" s="7">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1866418</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2243292</v>
-      </c>
-      <c r="G28" s="6">
-        <v>33796</v>
-      </c>
-      <c r="H28" s="6">
-        <v>4143506</v>
-      </c>
-      <c r="I28">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2331589</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2026404</v>
+      </c>
+      <c r="G30" s="6">
+        <v>118335</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4476328</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2304785</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2009525</v>
+      </c>
+      <c r="G31" s="6">
+        <v>11067</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4432645</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1291767</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1098893</v>
+      </c>
+      <c r="G32" s="6">
+        <v>23714</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2414374</v>
+      </c>
+      <c r="I32">
         <v>8</v>
       </c>
-      <c r="J28">
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>11</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>19</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0.54590000000000005</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0.57889999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="M32" s="7">
+        <v>0.4597</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.2727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1860332</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2229091</v>
-      </c>
-      <c r="G29" s="6">
-        <v>33796</v>
-      </c>
-      <c r="H29" s="6">
-        <v>4123219</v>
-      </c>
-      <c r="I29">
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1281320</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1352463</v>
+      </c>
+      <c r="G33" s="6">
+        <v>-280440</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2657497</v>
+      </c>
+      <c r="I33">
         <v>8</v>
       </c>
-      <c r="J29">
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>11</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0.57889999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="M33" s="7">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.2727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="6">
-        <v>622163</v>
-      </c>
-      <c r="F30" s="6">
-        <v>616434</v>
-      </c>
-      <c r="G30" s="6">
-        <v>-129843</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1108754</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>6</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0.49769999999999998</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0.33329999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1040071</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1089456</v>
+      </c>
+      <c r="G34" s="6">
+        <v>17996</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2147523</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="6">
-        <v>622163</v>
-      </c>
-      <c r="F31" s="6">
-        <v>844082</v>
-      </c>
-      <c r="G31" s="6">
-        <v>-357491</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1336402</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0.57569999999999999</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0.33329999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2331589</v>
-      </c>
-      <c r="F32" s="6">
-        <v>2026404</v>
-      </c>
-      <c r="G32" s="6">
-        <v>118335</v>
-      </c>
-      <c r="H32" s="6">
-        <v>4476328</v>
-      </c>
-      <c r="I32">
-        <v>20</v>
-      </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2304785</v>
-      </c>
-      <c r="F33" s="6">
-        <v>2009525</v>
-      </c>
-      <c r="G33" s="6">
-        <v>11067</v>
-      </c>
-      <c r="H33" s="6">
-        <v>4432645</v>
-      </c>
-      <c r="I33">
-        <v>20</v>
-      </c>
-      <c r="J33">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.46579999999999999</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="6">
-        <v>1291767</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1098893</v>
-      </c>
-      <c r="G34" s="6">
-        <v>23714</v>
-      </c>
-      <c r="H34" s="6">
-        <v>2414374</v>
-      </c>
-      <c r="I34">
+      <c r="E35" s="6">
+        <v>1040071</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1206713</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-183371</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2264780</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>8</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0.4597</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0.2727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1281320</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1352463</v>
-      </c>
-      <c r="G35" s="6">
-        <v>-280440</v>
-      </c>
-      <c r="H35" s="6">
-        <v>2657497</v>
-      </c>
-      <c r="I35">
-        <v>8</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
       <c r="M35" s="7">
-        <v>0.51349999999999996</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="N35" s="7">
-        <v>0.2727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1040071</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1089456</v>
-      </c>
-      <c r="G36" s="6">
-        <v>17996</v>
-      </c>
-      <c r="H36" s="6">
-        <v>2147523</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>5</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1040071</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1206713</v>
-      </c>
-      <c r="G37" s="6">
-        <v>-183371</v>
-      </c>
-      <c r="H37" s="6">
-        <v>2264780</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>8</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0.53710000000000002</v>
-      </c>
-      <c r="N37" s="7">
         <v>0.625</v>
       </c>
     </row>
